--- a/statistics/R/roiHumanBody_Within-PLI_alpha/output.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_alpha/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.014194998569998563</v>
+        <v>-0.007097499284999281</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0484768318101651</v>
+        <v>0.02423841590508255</v>
       </c>
       <c r="E2" t="n">
-        <v>0.025343112155256475</v>
+        <v>0.012671556077628238</v>
       </c>
       <c r="F2" t="n">
-        <v>0.011791383219954654</v>
+        <v>0.005895691609977327</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0074239417989417356</v>
+        <v>-0.0037119708994708678</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.00995953937130406</v>
+        <v>-0.00497976968565203</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.09742106719230892</v>
+        <v>-0.04871053359615446</v>
       </c>
       <c r="D3" t="n">
-        <v>0.055166511048864</v>
+        <v>0.027583255524432</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.009377084167000171</v>
+        <v>-0.004688542083500086</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.036570183629007214</v>
+        <v>-0.018285091814503607</v>
       </c>
       <c r="G3" t="n">
-        <v>0.012838468720821616</v>
+        <v>0.006419234360410808</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.08760393046107334</v>
+        <v>-0.04380196523053667</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0012806924571630574</v>
+        <v>6.403462285815287E-4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05225762819747798</v>
+        <v>0.02612881409873899</v>
       </c>
       <c r="E4" t="n">
-        <v>0.11752672278988063</v>
+        <v>0.05876336139494032</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0027698638809748877</v>
+        <v>-0.0013849319404874438</v>
       </c>
       <c r="G4" t="n">
-        <v>0.016925028620935034</v>
+        <v>0.008462514310467517</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.017075683742350467</v>
+        <v>-0.008537841871175234</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04038732610161194</v>
+        <v>-0.02019366305080597</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0014029180695847021</v>
+        <v>7.014590347923511E-4</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.13146837682441398</v>
+        <v>-0.06573418841220699</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.009827107049329209</v>
+        <v>-0.0049135535246646045</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.006370603797074381</v>
+        <v>-0.0031853018985371906</v>
       </c>
       <c r="H5" t="n">
-        <v>0.048687151628328096</v>
+        <v>0.024343575814164048</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.010857010857010907</v>
+        <v>-0.0054285054285054535</v>
       </c>
       <c r="D6" t="n">
-        <v>0.031897745159393864</v>
+        <v>0.015948872579696932</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.09795460271650736</v>
+        <v>-0.04897730135825368</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0435107376283847</v>
+        <v>-0.02175536881419235</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.037447651733366116</v>
+        <v>-0.018723825866683058</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.008730953175397627</v>
+        <v>-0.004365476587698813</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.10573457453156704</v>
+        <v>-0.05286728726578352</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.056703826311669425</v>
+        <v>-0.028351913155834713</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.004825171491838087</v>
+        <v>-0.0024125857459190436</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04202569916855636</v>
+        <v>-0.02101284958427818</v>
       </c>
       <c r="G7" t="n">
-        <v>0.020689247921390708</v>
+        <v>0.010344623960695354</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.03531116150163777</v>
+        <v>-0.017655580750818883</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11597942480295426</v>
+        <v>0.05798971240147713</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.05259349703794136</v>
+        <v>-0.02629674851897068</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0029604434366339305</v>
+        <v>0.0014802217183169653</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006059783837561561</v>
+        <v>0.0030298919187807805</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.10359338930767503</v>
+        <v>-0.051796694653837516</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03521825396825412</v>
+        <v>0.01760912698412706</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01019370290203625</v>
+        <v>-0.005096851451018125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03945334406163892</v>
+        <v>0.01972667203081946</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04779588603118001</v>
+        <v>-0.023897943015590006</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.017880238515159075</v>
+        <v>-0.008940119257579537</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07142621358307627</v>
+        <v>0.035713106791538135</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.001694049939663933</v>
+        <v>-8.470249698319665E-4</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0772820239206794</v>
+        <v>-0.0386410119603397</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01754385964912275</v>
+        <v>-0.008771929824561375</v>
       </c>
       <c r="E10" t="n">
-        <v>0.059757716900574076</v>
+        <v>0.029878858450287038</v>
       </c>
       <c r="F10" t="n">
-        <v>0.10156951669556716</v>
+        <v>0.05078475834778358</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.018520504631615753</v>
+        <v>-0.009260252315807876</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.014354630741185315</v>
+        <v>-0.007177315370592657</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0060982227648893605</v>
+        <v>0.0030491113824446803</v>
       </c>
       <c r="D11" t="n">
-        <v>0.037733221943748396</v>
+        <v>0.018866610971874198</v>
       </c>
       <c r="E11" t="n">
-        <v>0.009438009438009487</v>
+        <v>0.0047190047190047435</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.0923780923775013E-4</v>
+        <v>-1.5461890461887506E-4</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.056415343915344</v>
+        <v>-0.028207671957672</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.05915637860082312</v>
+        <v>-0.02957818930041156</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03241901048918594</v>
+        <v>0.01620950524459297</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01818519362379012</v>
+        <v>-0.00909259681189506</v>
       </c>
       <c r="E12" t="n">
-        <v>0.033564176421319314</v>
+        <v>0.016782088210659657</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05831841508533231</v>
+        <v>-0.029159207542666155</v>
       </c>
       <c r="G12" t="n">
-        <v>0.037883007181252704</v>
+        <v>0.018941503590626352</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0086148419481753</v>
+        <v>0.00430742097408765</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06655349199208849</v>
+        <v>0.033276745996044244</v>
       </c>
       <c r="D13" t="n">
-        <v>0.10664771914771917</v>
+        <v>0.053323859573859586</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03917432470064053</v>
+        <v>0.019587162350320264</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06058201058201074</v>
+        <v>0.03029100529100537</v>
       </c>
       <c r="G13" t="n">
-        <v>0.008767467100800452</v>
+        <v>0.004383733550400226</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04139622560675188</v>
+        <v>-0.02069811280337594</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.022919291173259415</v>
+        <v>-0.011459645586629708</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01734273956496163</v>
+        <v>0.008671369782480814</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0023819738105452237</v>
+        <v>0.0011909869052726119</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.005757858699035168</v>
+        <v>-0.002878929349517584</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.023380523380523377</v>
+        <v>-0.011690261690261688</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00831729998396652</v>
+        <v>0.00415864999198326</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.10428827095493765</v>
+        <v>-0.05214413547746882</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1114308753197642</v>
+        <v>0.0557154376598821</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0968930262163345</v>
+        <v>0.04844651310816725</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.013893592840961144</v>
+        <v>-0.006946796420480572</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09199841552782728</v>
+        <v>0.04599920776391364</v>
       </c>
       <c r="H15" t="n">
-        <v>0.037188208616780016</v>
+        <v>0.018594104308390008</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.016486724820058307</v>
+        <v>-0.008243362410029154</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.07445001392369827</v>
+        <v>-0.03722500696184913</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.028051861385194665</v>
+        <v>-0.014025930692597333</v>
       </c>
       <c r="F16" t="n">
-        <v>-9.746588693958502E-4</v>
+        <v>-4.873294346979251E-4</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.005624672291338895</v>
+        <v>-0.0028123361456694473</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08185496420790539</v>
+        <v>0.040927482103952695</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.017563198118753676</v>
+        <v>-0.008781599059376838</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02184628237259817</v>
+        <v>0.010923141186299085</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0878735878735879</v>
+        <v>0.04393679393679395</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.028875028875028852</v>
+        <v>-0.014437514437514426</v>
       </c>
       <c r="G17" t="n">
-        <v>0.033104533104532985</v>
+        <v>0.016552266552266492</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02334080111857889</v>
+        <v>0.011670400559289446</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.12079968439617572</v>
+        <v>0.06039984219808786</v>
       </c>
       <c r="D18" t="n">
-        <v>0.005637108644627298</v>
+        <v>0.002818554322313649</v>
       </c>
       <c r="E18" t="n">
-        <v>0.012643946467475908</v>
+        <v>0.006321973233737954</v>
       </c>
       <c r="F18" t="n">
-        <v>5.783094018388946E-4</v>
+        <v>2.891547009194473E-4</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.042670277987738314</v>
+        <v>-0.021335138993869157</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07669648106156057</v>
+        <v>-0.038348240530780286</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.08822331401696487</v>
+        <v>-0.044111657008482436</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04847380797673201</v>
+        <v>-0.024236903988366004</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1199771199771199</v>
+        <v>0.05998855998855995</v>
       </c>
       <c r="F19" t="n">
-        <v>0.019521843825249408</v>
+        <v>0.009760921912624704</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05806362949220101</v>
+        <v>0.029031814746100504</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.004778972520907976</v>
+        <v>-0.002389486260453988</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0042618756904472255</v>
+        <v>-0.0021309378452236127</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.059452309452309615</v>
+        <v>-0.029726154726154808</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03257699091032423</v>
+        <v>0.016288495455162116</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.07086994341896302</v>
+        <v>-0.03543497170948151</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.007800841134174397</v>
+        <v>-0.0039004205670871983</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.01714908185496422</v>
+        <v>-0.00857454092748211</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03856420523087195</v>
+        <v>0.019282102615435975</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002056423109054628</v>
+        <v>0.001028211554527314</v>
       </c>
       <c r="E21" t="n">
-        <v>0.015293681960348582</v>
+        <v>0.007646840980174291</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0032203014659155094</v>
+        <v>-0.0016101507329577547</v>
       </c>
       <c r="G21" t="n">
-        <v>0.002847396268448932</v>
+        <v>0.001423698134224466</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.04434104434104441</v>
+        <v>-0.022170522170522206</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.026728409081350435</v>
+        <v>-0.013364204540675217</v>
       </c>
       <c r="D22" t="n">
-        <v>0.020521017048794776</v>
+        <v>0.010260508524397388</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.04911966891133551</v>
+        <v>-0.024559834455667756</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.03197536324471317</v>
+        <v>-0.015987681622356587</v>
       </c>
       <c r="G22" t="n">
-        <v>0.030309901738473144</v>
+        <v>0.015154950869236572</v>
       </c>
       <c r="H22" t="n">
-        <v>0.013684319239874898</v>
+        <v>0.006842159619937449</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06751990085323417</v>
+        <v>0.033759950426617086</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.049776306919164015</v>
+        <v>-0.024888153459582008</v>
       </c>
       <c r="E23" t="n">
-        <v>0.10518601308074993</v>
+        <v>0.052593006540374965</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.03477286810620145</v>
+        <v>-0.017386434053100724</v>
       </c>
       <c r="G23" t="n">
-        <v>0.10527256579888161</v>
+        <v>0.052636282899440806</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0027622159975101424</v>
+        <v>-0.0013811079987550712</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.052481052481052504</v>
+        <v>-0.026240526240526252</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.01862681394845145</v>
+        <v>-0.009313406974225724</v>
       </c>
       <c r="E24" t="n">
-        <v>0.025505358838692205</v>
+        <v>0.012752679419346102</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.09670008354218873</v>
+        <v>-0.048350041771094365</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06191404437018472</v>
+        <v>0.03095702218509236</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.027859891894979727</v>
+        <v>-0.013929945947489863</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.018858760238070565</v>
+        <v>0.009429380119035283</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04711854711854707</v>
+        <v>0.023559273559273536</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.04580337913671245</v>
+        <v>-0.022901689568356226</v>
       </c>
       <c r="F25" t="n">
-        <v>0.010367510367510324</v>
+        <v>0.005183755183755162</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03016102063721121</v>
+        <v>0.015080510318605606</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04533327970827977</v>
+        <v>0.022666639854139886</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05476267830069009</v>
+        <v>0.027381339150345047</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.006430920716635036</v>
+        <v>-0.003215460358317518</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06611162983711999</v>
+        <v>0.033055814918559995</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.07145691609977334</v>
+        <v>-0.03572845804988667</v>
       </c>
       <c r="G26" t="n">
-        <v>0.011995206439650852</v>
+        <v>0.005997603219825426</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.02563803299097417</v>
+        <v>-0.012819016495487084</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.030375083006661974</v>
+        <v>0.015187541503330987</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.09313020204833072</v>
+        <v>-0.04656510102416536</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.03607689321975038</v>
+        <v>-0.01803844660987519</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.025168025168025077</v>
+        <v>-0.012584012584012538</v>
       </c>
       <c r="G27" t="n">
-        <v>0.007258173924840683</v>
+        <v>0.0036290869624203415</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.024596024596024557</v>
+        <v>-0.012298012298012279</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.11363273704543547</v>
+        <v>0.056816368522717736</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.009982332562977814</v>
+        <v>-0.004991166281488907</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.04682658849325516</v>
+        <v>-0.02341329424662758</v>
       </c>
       <c r="F28" t="n">
-        <v>0.007048374905517796</v>
+        <v>0.003524187452758898</v>
       </c>
       <c r="G28" t="n">
-        <v>0.034340331114524614</v>
+        <v>0.017170165557262307</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0021008403361344463</v>
+        <v>-0.0010504201680672232</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.07121971595655807</v>
+        <v>-0.035609857978279036</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.02233552233552233</v>
+        <v>-0.011167761167761164</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001614709948043247</v>
+        <v>8.073549740216235E-4</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.030464232476616337</v>
+        <v>-0.015232116238308169</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.028751200179771508</v>
+        <v>-0.014375600089885754</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.017160017160017194</v>
+        <v>-0.008580008580008597</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.025094737594737626</v>
+        <v>-0.012547368797368813</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05865508365508354</v>
+        <v>0.02932754182754177</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.023892940559607168</v>
+        <v>-0.011946470279803584</v>
       </c>
       <c r="F30" t="n">
-        <v>0.008867796367796332</v>
+        <v>0.004433898183898166</v>
       </c>
       <c r="G30" t="n">
-        <v>0.003835978835978804</v>
+        <v>0.001917989417989402</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03359374412005994</v>
+        <v>0.01679687206002997</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="G2" t="n">
-        <v>0.064</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1132,10 @@
         <v>29.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="G3" t="n">
-        <v>0.051</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="4">
@@ -1155,10 +1155,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="G4" t="n">
-        <v>0.061</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="5">
@@ -1178,10 +1178,10 @@
         <v>29.0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.014</v>
+        <v>-0.007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.039</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="6">
@@ -1201,10 +1201,10 @@
         <v>29.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="G6" t="n">
-        <v>0.044</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1224,10 @@
         <v>29.0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.006</v>
+        <v>-0.003</v>
       </c>
       <c r="G7" t="n">
-        <v>0.038</v>
+        <v>0.019</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>4.0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.13146837682441398</v>
+        <v>-0.06573418841220699</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>9.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.10156951669556716</v>
+        <v>0.05078475834778358</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>23.0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.09670008354218873</v>
+        <v>-0.048350041771094365</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1347,7 +1347,7 @@
         <v>7.0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.10359338930767503</v>
+        <v>-0.051796694653837516</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1370,7 +1370,7 @@
         <v>22.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.10527256579888161</v>
+        <v>0.052636282899440806</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1393,7 +1393,7 @@
         <v>2.0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.08760393046107334</v>
+        <v>-0.04380196523053667</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1416,7 +1416,7 @@
         <v>15.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08185496420790539</v>
+        <v>0.040927482103952695</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>

--- a/statistics/R/roiHumanBody_Within-PLI_alpha/output.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_alpha/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.007097499284999281</v>
+        <v>-0.014194998569998563</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02423841590508255</v>
+        <v>0.0484768318101651</v>
       </c>
       <c r="E2" t="n">
-        <v>0.012671556077628238</v>
+        <v>0.025343112155256475</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005895691609977327</v>
+        <v>0.011791383219954654</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0037119708994708678</v>
+        <v>-0.0074239417989417356</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.00497976968565203</v>
+        <v>-0.00995953937130406</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.04871053359615446</v>
+        <v>-0.09742106719230892</v>
       </c>
       <c r="D3" t="n">
-        <v>0.027583255524432</v>
+        <v>0.055166511048864</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.004688542083500086</v>
+        <v>-0.009377084167000171</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.018285091814503607</v>
+        <v>-0.036570183629007214</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006419234360410808</v>
+        <v>0.012838468720821616</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.04380196523053667</v>
+        <v>-0.08760393046107334</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.403462285815287E-4</v>
+        <v>0.0012806924571630574</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02612881409873899</v>
+        <v>0.05225762819747798</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05876336139494032</v>
+        <v>0.11752672278988063</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0013849319404874438</v>
+        <v>-0.0027698638809748877</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008462514310467517</v>
+        <v>0.016925028620935034</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008537841871175234</v>
+        <v>-0.017075683742350467</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.02019366305080597</v>
+        <v>-0.04038732610161194</v>
       </c>
       <c r="D5" t="n">
-        <v>7.014590347923511E-4</v>
+        <v>0.0014029180695847021</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.06573418841220699</v>
+        <v>-0.13146837682441398</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0049135535246646045</v>
+        <v>-0.009827107049329209</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0031853018985371906</v>
+        <v>-0.006370603797074381</v>
       </c>
       <c r="H5" t="n">
-        <v>0.024343575814164048</v>
+        <v>0.048687151628328096</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0054285054285054535</v>
+        <v>-0.010857010857010907</v>
       </c>
       <c r="D6" t="n">
-        <v>0.015948872579696932</v>
+        <v>0.031897745159393864</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04897730135825368</v>
+        <v>-0.09795460271650736</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02175536881419235</v>
+        <v>-0.0435107376283847</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.018723825866683058</v>
+        <v>-0.037447651733366116</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.004365476587698813</v>
+        <v>-0.008730953175397627</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.05286728726578352</v>
+        <v>-0.10573457453156704</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.028351913155834713</v>
+        <v>-0.056703826311669425</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0024125857459190436</v>
+        <v>-0.004825171491838087</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02101284958427818</v>
+        <v>-0.04202569916855636</v>
       </c>
       <c r="G7" t="n">
-        <v>0.010344623960695354</v>
+        <v>0.020689247921390708</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.017655580750818883</v>
+        <v>-0.03531116150163777</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05798971240147713</v>
+        <v>0.11597942480295426</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02629674851897068</v>
+        <v>-0.05259349703794136</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0014802217183169653</v>
+        <v>0.0029604434366339305</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0030298919187807805</v>
+        <v>0.006059783837561561</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.051796694653837516</v>
+        <v>-0.10359338930767503</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01760912698412706</v>
+        <v>0.03521825396825412</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.005096851451018125</v>
+        <v>-0.01019370290203625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01972667203081946</v>
+        <v>0.03945334406163892</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.023897943015590006</v>
+        <v>-0.04779588603118001</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.008940119257579537</v>
+        <v>-0.017880238515159075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.035713106791538135</v>
+        <v>0.07142621358307627</v>
       </c>
       <c r="H9" t="n">
-        <v>-8.470249698319665E-4</v>
+        <v>-0.001694049939663933</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0386410119603397</v>
+        <v>-0.0772820239206794</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.008771929824561375</v>
+        <v>-0.01754385964912275</v>
       </c>
       <c r="E10" t="n">
-        <v>0.029878858450287038</v>
+        <v>0.059757716900574076</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05078475834778358</v>
+        <v>0.10156951669556716</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.009260252315807876</v>
+        <v>-0.018520504631615753</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.007177315370592657</v>
+        <v>-0.014354630741185315</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0030491113824446803</v>
+        <v>0.0060982227648893605</v>
       </c>
       <c r="D11" t="n">
-        <v>0.018866610971874198</v>
+        <v>0.037733221943748396</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0047190047190047435</v>
+        <v>0.009438009438009487</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.5461890461887506E-4</v>
+        <v>-3.0923780923775013E-4</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.028207671957672</v>
+        <v>-0.056415343915344</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.02957818930041156</v>
+        <v>-0.05915637860082312</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01620950524459297</v>
+        <v>0.03241901048918594</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.00909259681189506</v>
+        <v>-0.01818519362379012</v>
       </c>
       <c r="E12" t="n">
-        <v>0.016782088210659657</v>
+        <v>0.033564176421319314</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.029159207542666155</v>
+        <v>-0.05831841508533231</v>
       </c>
       <c r="G12" t="n">
-        <v>0.018941503590626352</v>
+        <v>0.037883007181252704</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00430742097408765</v>
+        <v>0.0086148419481753</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.033276745996044244</v>
+        <v>0.06655349199208849</v>
       </c>
       <c r="D13" t="n">
-        <v>0.053323859573859586</v>
+        <v>0.10664771914771917</v>
       </c>
       <c r="E13" t="n">
-        <v>0.019587162350320264</v>
+        <v>0.03917432470064053</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03029100529100537</v>
+        <v>0.06058201058201074</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004383733550400226</v>
+        <v>0.008767467100800452</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.02069811280337594</v>
+        <v>-0.04139622560675188</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.011459645586629708</v>
+        <v>-0.022919291173259415</v>
       </c>
       <c r="D14" t="n">
-        <v>0.008671369782480814</v>
+        <v>0.01734273956496163</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0011909869052726119</v>
+        <v>0.0023819738105452237</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.002878929349517584</v>
+        <v>-0.005757858699035168</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.011690261690261688</v>
+        <v>-0.023380523380523377</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00415864999198326</v>
+        <v>0.00831729998396652</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.05214413547746882</v>
+        <v>-0.10428827095493765</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0557154376598821</v>
+        <v>0.1114308753197642</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04844651310816725</v>
+        <v>0.0968930262163345</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.006946796420480572</v>
+        <v>-0.013893592840961144</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04599920776391364</v>
+        <v>0.09199841552782728</v>
       </c>
       <c r="H15" t="n">
-        <v>0.018594104308390008</v>
+        <v>0.037188208616780016</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.008243362410029154</v>
+        <v>-0.016486724820058307</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.03722500696184913</v>
+        <v>-0.07445001392369827</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.014025930692597333</v>
+        <v>-0.028051861385194665</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.873294346979251E-4</v>
+        <v>-9.746588693958502E-4</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0028123361456694473</v>
+        <v>-0.005624672291338895</v>
       </c>
       <c r="H16" t="n">
-        <v>0.040927482103952695</v>
+        <v>0.08185496420790539</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.008781599059376838</v>
+        <v>-0.017563198118753676</v>
       </c>
       <c r="D17" t="n">
-        <v>0.010923141186299085</v>
+        <v>0.02184628237259817</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04393679393679395</v>
+        <v>0.0878735878735879</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.014437514437514426</v>
+        <v>-0.028875028875028852</v>
       </c>
       <c r="G17" t="n">
-        <v>0.016552266552266492</v>
+        <v>0.033104533104532985</v>
       </c>
       <c r="H17" t="n">
-        <v>0.011670400559289446</v>
+        <v>0.02334080111857889</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06039984219808786</v>
+        <v>0.12079968439617572</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002818554322313649</v>
+        <v>0.005637108644627298</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006321973233737954</v>
+        <v>0.012643946467475908</v>
       </c>
       <c r="F18" t="n">
-        <v>2.891547009194473E-4</v>
+        <v>5.783094018388946E-4</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.021335138993869157</v>
+        <v>-0.042670277987738314</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.038348240530780286</v>
+        <v>-0.07669648106156057</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.044111657008482436</v>
+        <v>-0.08822331401696487</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.024236903988366004</v>
+        <v>-0.04847380797673201</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05998855998855995</v>
+        <v>0.1199771199771199</v>
       </c>
       <c r="F19" t="n">
-        <v>0.009760921912624704</v>
+        <v>0.019521843825249408</v>
       </c>
       <c r="G19" t="n">
-        <v>0.029031814746100504</v>
+        <v>0.05806362949220101</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.002389486260453988</v>
+        <v>-0.004778972520907976</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0021309378452236127</v>
+        <v>-0.0042618756904472255</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.029726154726154808</v>
+        <v>-0.059452309452309615</v>
       </c>
       <c r="E20" t="n">
-        <v>0.016288495455162116</v>
+        <v>0.03257699091032423</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.03543497170948151</v>
+        <v>-0.07086994341896302</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0039004205670871983</v>
+        <v>-0.007800841134174397</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.00857454092748211</v>
+        <v>-0.01714908185496422</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.019282102615435975</v>
+        <v>0.03856420523087195</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001028211554527314</v>
+        <v>0.002056423109054628</v>
       </c>
       <c r="E21" t="n">
-        <v>0.007646840980174291</v>
+        <v>0.015293681960348582</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0016101507329577547</v>
+        <v>-0.0032203014659155094</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001423698134224466</v>
+        <v>0.002847396268448932</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.022170522170522206</v>
+        <v>-0.04434104434104441</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.013364204540675217</v>
+        <v>-0.026728409081350435</v>
       </c>
       <c r="D22" t="n">
-        <v>0.010260508524397388</v>
+        <v>0.020521017048794776</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.024559834455667756</v>
+        <v>-0.04911966891133551</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.015987681622356587</v>
+        <v>-0.03197536324471317</v>
       </c>
       <c r="G22" t="n">
-        <v>0.015154950869236572</v>
+        <v>0.030309901738473144</v>
       </c>
       <c r="H22" t="n">
-        <v>0.006842159619937449</v>
+        <v>0.013684319239874898</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.033759950426617086</v>
+        <v>0.06751990085323417</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.024888153459582008</v>
+        <v>-0.049776306919164015</v>
       </c>
       <c r="E23" t="n">
-        <v>0.052593006540374965</v>
+        <v>0.10518601308074993</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.017386434053100724</v>
+        <v>-0.03477286810620145</v>
       </c>
       <c r="G23" t="n">
-        <v>0.052636282899440806</v>
+        <v>0.10527256579888161</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0013811079987550712</v>
+        <v>-0.0027622159975101424</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.026240526240526252</v>
+        <v>-0.052481052481052504</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.009313406974225724</v>
+        <v>-0.01862681394845145</v>
       </c>
       <c r="E24" t="n">
-        <v>0.012752679419346102</v>
+        <v>0.025505358838692205</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.048350041771094365</v>
+        <v>-0.09670008354218873</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03095702218509236</v>
+        <v>0.06191404437018472</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.013929945947489863</v>
+        <v>-0.027859891894979727</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.009429380119035283</v>
+        <v>0.018858760238070565</v>
       </c>
       <c r="D25" t="n">
-        <v>0.023559273559273536</v>
+        <v>0.04711854711854707</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.022901689568356226</v>
+        <v>-0.04580337913671245</v>
       </c>
       <c r="F25" t="n">
-        <v>0.005183755183755162</v>
+        <v>0.010367510367510324</v>
       </c>
       <c r="G25" t="n">
-        <v>0.015080510318605606</v>
+        <v>0.03016102063721121</v>
       </c>
       <c r="H25" t="n">
-        <v>0.022666639854139886</v>
+        <v>0.04533327970827977</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.027381339150345047</v>
+        <v>0.05476267830069009</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.003215460358317518</v>
+        <v>-0.006430920716635036</v>
       </c>
       <c r="E26" t="n">
-        <v>0.033055814918559995</v>
+        <v>0.06611162983711999</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.03572845804988667</v>
+        <v>-0.07145691609977334</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005997603219825426</v>
+        <v>0.011995206439650852</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.012819016495487084</v>
+        <v>-0.02563803299097417</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.015187541503330987</v>
+        <v>0.030375083006661974</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.04656510102416536</v>
+        <v>-0.09313020204833072</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.01803844660987519</v>
+        <v>-0.03607689321975038</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.012584012584012538</v>
+        <v>-0.025168025168025077</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0036290869624203415</v>
+        <v>0.007258173924840683</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.012298012298012279</v>
+        <v>-0.024596024596024557</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.056816368522717736</v>
+        <v>0.11363273704543547</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.004991166281488907</v>
+        <v>-0.009982332562977814</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.02341329424662758</v>
+        <v>-0.04682658849325516</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003524187452758898</v>
+        <v>0.007048374905517796</v>
       </c>
       <c r="G28" t="n">
-        <v>0.017170165557262307</v>
+        <v>0.034340331114524614</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0010504201680672232</v>
+        <v>-0.0021008403361344463</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.035609857978279036</v>
+        <v>-0.07121971595655807</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.011167761167761164</v>
+        <v>-0.02233552233552233</v>
       </c>
       <c r="E29" t="n">
-        <v>8.073549740216235E-4</v>
+        <v>0.001614709948043247</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.015232116238308169</v>
+        <v>-0.030464232476616337</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.014375600089885754</v>
+        <v>-0.028751200179771508</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.008580008580008597</v>
+        <v>-0.017160017160017194</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.012547368797368813</v>
+        <v>-0.025094737594737626</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02932754182754177</v>
+        <v>0.05865508365508354</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.011946470279803584</v>
+        <v>-0.023892940559607168</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004433898183898166</v>
+        <v>0.008867796367796332</v>
       </c>
       <c r="G30" t="n">
-        <v>0.001917989417989402</v>
+        <v>0.003835978835978804</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01679687206002997</v>
+        <v>0.03359374412005994</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.002</v>
+        <v>-0.004</v>
       </c>
       <c r="G2" t="n">
-        <v>0.032</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1132,10 @@
         <v>29.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="G3" t="n">
-        <v>0.025</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="4">
@@ -1155,10 +1155,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="G4" t="n">
-        <v>0.031</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="5">
@@ -1178,10 +1178,10 @@
         <v>29.0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.007</v>
+        <v>-0.014</v>
       </c>
       <c r="G5" t="n">
-        <v>0.019</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="6">
@@ -1201,10 +1201,10 @@
         <v>29.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>0.022</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1224,10 @@
         <v>29.0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.003</v>
+        <v>-0.006</v>
       </c>
       <c r="G7" t="n">
-        <v>0.019</v>
+        <v>0.038</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>4.0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06573418841220699</v>
+        <v>-0.13146837682441398</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>9.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05078475834778358</v>
+        <v>0.10156951669556716</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>23.0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.048350041771094365</v>
+        <v>-0.09670008354218873</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1347,7 +1347,7 @@
         <v>7.0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.051796694653837516</v>
+        <v>-0.10359338930767503</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1370,7 +1370,7 @@
         <v>22.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.052636282899440806</v>
+        <v>0.10527256579888161</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1393,7 +1393,7 @@
         <v>2.0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04380196523053667</v>
+        <v>-0.08760393046107334</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1416,7 +1416,7 @@
         <v>15.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.040927482103952695</v>
+        <v>0.08185496420790539</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
